--- a/chachis2.xlsx
+++ b/chachis2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6336" windowWidth="17316" windowHeight="2532" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="6552" windowWidth="17316" windowHeight="2532" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <author>Heaney, Daniel H CIV NSWCDD, W42</author>
   </authors>
   <commentList>
-    <comment ref="B480" authorId="0" shapeId="0">
+    <comment ref="B483" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6841" uniqueCount="5257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6855" uniqueCount="5270">
   <si>
     <t>Base Set</t>
   </si>
@@ -15845,6 +15845,45 @@
   </si>
   <si>
     <t>Ron Diorio CTNW</t>
+  </si>
+  <si>
+    <t>Arquimedes Gamboa 2015 Bowman Chrome</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-AycQ9FLKhGU/W_X95RmO5mI/AAAAAAAAlZ4/w51RheLCt3cyd6w_02uHMVgtk8usw2iJACLcBGAs/s1600/2015%2BBowman%2BChrome%2BProspect%2BAutographs%2B%2523BCAP-AG%2BGamboa.jpg</t>
+  </si>
+  <si>
+    <t>Adonis Medina 2017 Bowman Chrome</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-VISxToKyX9U/W_X95Vj97BI/AAAAAAAAlZ8/uBRXZSvbE483obqv09Cv7dT_V7FUSHvDQCLcBGAs/s1600/2017%2BBowman%2BChrome%2BProspect%2BAutographs%2B%2523CPA-AME%2BMedina.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-veEhqNu9VXU/W_Ivvf7Lh7I/AAAAAAAB72g/V7NGB4pEQkMSBFSlS4fKQDueNmwx62atQCLcBGAs/s1600/jeltz%2B85Tr.jpg</t>
+  </si>
+  <si>
+    <t>Victor Arano 2018 Topps Gallery</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-kX3G3GABDEM/W_j4_vPSOjI/AAAAAAAAjW8/YphJvdubFt08fo0-PIMHwQDtHhhGBSe7ACEwYBhgL/s1600/136%2Barino%2Bf.jpg</t>
+  </si>
+  <si>
+    <t>Ricky Jordan 92 Fleer Ultra</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-7rNqu957mpU/W_fbWOzcAZI/AAAAAAAAm7g/ik88liM401IRRmnym4jrpcqH5vEmf5akQCLcBGAs/s1600/rjordan92fleerultra.jpg</t>
+  </si>
+  <si>
+    <t>Dale Murphy 92 Fleer Ultra</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-u-IAM1cW-oc/W_fbV2ZXlhI/AAAAAAAAm7Y/FKOf3hcyBvQKppbTc_yneIpmh3ZoQYk-ACLcBGAs/s1600/murphy92fleerultra.jpg</t>
+  </si>
+  <si>
+    <t>Joe Lis CTNW</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-u6EMJFNt4eo/W_KOh8N6SxI/AAAAAAAAPAk/H5aJc6SbfC4uMMGIMrSbzh3aSxUQJG9ngCLcBGAs/s1600/1973-NOT-REALLY-JOE-LIS.jpg</t>
   </si>
 </sst>
 </file>
@@ -32253,10 +32292,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C823"/>
+  <dimension ref="A1:C828"/>
   <sheetViews>
-    <sheetView topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="A370" sqref="A370"/>
+    <sheetView topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="B339" sqref="B339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35167,4068 +35206,4108 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>5076</v>
+        <v>5259</v>
       </c>
       <c r="B304" t="s">
-        <v>5075</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>2229</v>
+        <v>5076</v>
       </c>
       <c r="B305" t="s">
-        <v>2230</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>2955</v>
+        <v>5257</v>
       </c>
       <c r="B306" t="s">
-        <v>2954</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>2494</v>
+        <v>2229</v>
       </c>
       <c r="B307" t="s">
-        <v>2495</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>3282</v>
+        <v>2955</v>
       </c>
       <c r="B308" t="s">
-        <v>3283</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>1606</v>
+        <v>2494</v>
       </c>
       <c r="B309" t="s">
-        <v>1607</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>3133</v>
+        <v>3282</v>
       </c>
       <c r="B310" t="s">
-        <v>3132</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>5243</v>
+        <v>1606</v>
       </c>
       <c r="B311" t="s">
-        <v>5244</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>2957</v>
+        <v>3133</v>
       </c>
       <c r="B312" t="s">
-        <v>2956</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>2502</v>
+        <v>5243</v>
       </c>
       <c r="B313" t="s">
-        <v>2505</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>3618</v>
+        <v>2957</v>
       </c>
       <c r="B314" t="s">
-        <v>3619</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>1817</v>
+        <v>2502</v>
       </c>
       <c r="B315" t="s">
-        <v>1818</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>2319</v>
+        <v>3618</v>
       </c>
       <c r="B316" t="s">
-        <v>1775</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>2982</v>
+        <v>1817</v>
       </c>
       <c r="B317" t="s">
-        <v>2983</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>5095</v>
+        <v>2319</v>
       </c>
       <c r="B318" t="s">
-        <v>5096</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>5108</v>
+        <v>2982</v>
       </c>
       <c r="B319" t="s">
-        <v>5107</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>5191</v>
+        <v>5095</v>
       </c>
       <c r="B320" t="s">
-        <v>5190</v>
+        <v>5096</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>3850</v>
+        <v>5108</v>
       </c>
       <c r="B321" t="s">
-        <v>3851</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>4330</v>
+        <v>5191</v>
       </c>
       <c r="B322" t="s">
-        <v>4331</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>3661</v>
+        <v>3850</v>
       </c>
       <c r="B323" t="s">
-        <v>3662</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>4449</v>
+        <v>4330</v>
       </c>
       <c r="B324" t="s">
-        <v>4450</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>5152</v>
+        <v>3661</v>
       </c>
       <c r="B325" t="s">
-        <v>5153</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>1815</v>
+        <v>4449</v>
       </c>
       <c r="B326" t="s">
-        <v>1816</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>2396</v>
+        <v>5152</v>
       </c>
       <c r="B327" t="s">
-        <v>2397</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>1803</v>
+        <v>1815</v>
       </c>
       <c r="B328" t="s">
-        <v>1804</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>5105</v>
+        <v>2396</v>
       </c>
       <c r="B329" t="s">
-        <v>5106</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>2930</v>
+        <v>1803</v>
       </c>
       <c r="B330" t="s">
-        <v>2931</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>2648</v>
+        <v>5105</v>
       </c>
       <c r="B331" t="s">
-        <v>2647</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>2953</v>
+        <v>2930</v>
       </c>
       <c r="B332" t="s">
-        <v>2952</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>1807</v>
+        <v>2648</v>
       </c>
       <c r="B333" t="s">
-        <v>1808</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>2528</v>
+        <v>2953</v>
       </c>
       <c r="B334" t="s">
-        <v>2529</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>1107</v>
+        <v>1807</v>
       </c>
       <c r="B335" t="s">
-        <v>1826</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>2150</v>
+        <v>2528</v>
       </c>
       <c r="B336" t="s">
-        <v>2151</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>1700</v>
+        <v>1107</v>
       </c>
       <c r="B337" t="s">
-        <v>3538</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>3342</v>
+        <v>2150</v>
       </c>
       <c r="B338" t="s">
-        <v>3343</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>19</v>
+        <v>5266</v>
       </c>
       <c r="B339" t="s">
-        <v>1787</v>
+        <v>5267</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>2649</v>
+        <v>1700</v>
       </c>
       <c r="B340" t="s">
-        <v>2650</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>4076</v>
+        <v>3342</v>
       </c>
       <c r="B341" t="s">
-        <v>2273</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>3215</v>
+        <v>19</v>
       </c>
       <c r="B342" t="s">
-        <v>3214</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>2857</v>
+        <v>2649</v>
       </c>
       <c r="B343" t="s">
-        <v>2858</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>3526</v>
+        <v>4076</v>
       </c>
       <c r="B344" t="s">
-        <v>3525</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>3350</v>
+        <v>3215</v>
       </c>
       <c r="B345" t="s">
-        <v>3353</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>3351</v>
+        <v>2857</v>
       </c>
       <c r="B346" t="s">
-        <v>3354</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>3352</v>
+        <v>3526</v>
       </c>
       <c r="B347" t="s">
-        <v>3355</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>1778</v>
+        <v>3350</v>
       </c>
       <c r="B348" t="s">
-        <v>1779</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>1517</v>
+        <v>3351</v>
       </c>
       <c r="B349" t="s">
-        <v>1796</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>2848</v>
+        <v>3352</v>
       </c>
       <c r="B350" t="s">
-        <v>2847</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>4078</v>
+        <v>1778</v>
       </c>
       <c r="B351" t="s">
-        <v>2272</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>4075</v>
+        <v>1517</v>
       </c>
       <c r="B352" t="s">
-        <v>2143</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>2232</v>
+        <v>2848</v>
       </c>
       <c r="B353" t="s">
-        <v>2346</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>5083</v>
+        <v>4078</v>
       </c>
       <c r="B354" t="s">
-        <v>5082</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>2499</v>
+        <v>4075</v>
       </c>
       <c r="B355" t="s">
-        <v>2498</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>4972</v>
+        <v>2232</v>
       </c>
       <c r="B356" t="s">
-        <v>4971</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>5086</v>
+        <v>5083</v>
       </c>
       <c r="B357" t="s">
-        <v>5085</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>3333</v>
+        <v>2499</v>
       </c>
       <c r="B358" t="s">
-        <v>3332</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>2514</v>
+        <v>4972</v>
       </c>
       <c r="B359" t="s">
-        <v>2515</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>5116</v>
+        <v>5086</v>
       </c>
       <c r="B360" t="s">
-        <v>5117</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>2280</v>
+        <v>3333</v>
       </c>
       <c r="B361" t="s">
-        <v>2281</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>2309</v>
+        <v>2514</v>
       </c>
       <c r="B362" t="s">
-        <v>2310</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>1492</v>
+        <v>5116</v>
       </c>
       <c r="B363" t="s">
-        <v>1493</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>4077</v>
+        <v>2280</v>
       </c>
       <c r="B364" t="s">
-        <v>2226</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>3346</v>
+        <v>2309</v>
       </c>
       <c r="B365" t="s">
-        <v>3347</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>1801</v>
+        <v>1492</v>
       </c>
       <c r="B366" t="s">
-        <v>1802</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>1794</v>
+        <v>4077</v>
       </c>
       <c r="B367" t="s">
-        <v>1795</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>2313</v>
+        <v>3346</v>
       </c>
       <c r="B368" t="s">
-        <v>2314</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>5250</v>
+        <v>1801</v>
       </c>
       <c r="B369" t="s">
-        <v>5249</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>2976</v>
+        <v>1794</v>
       </c>
       <c r="B370" t="s">
-        <v>2975</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>4536</v>
+        <v>2313</v>
       </c>
       <c r="B371" t="s">
-        <v>4537</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>4877</v>
+        <v>5250</v>
       </c>
       <c r="B372" t="s">
-        <v>4878</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>5149</v>
+        <v>2976</v>
       </c>
       <c r="B373" t="s">
-        <v>5148</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>2382</v>
+        <v>4536</v>
       </c>
       <c r="B374" t="s">
-        <v>2383</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>2459</v>
+        <v>4877</v>
       </c>
       <c r="B375" t="s">
-        <v>2458</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>4305</v>
+        <v>5149</v>
       </c>
       <c r="B376" t="s">
-        <v>4304</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>4637</v>
+        <v>2382</v>
       </c>
       <c r="B377" t="s">
-        <v>4638</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>2935</v>
+        <v>2459</v>
       </c>
       <c r="B378" t="s">
-        <v>2934</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>2508</v>
+        <v>4305</v>
       </c>
       <c r="B379" t="s">
-        <v>2509</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>4276</v>
+        <v>4637</v>
       </c>
       <c r="B380" t="s">
-        <v>4277</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>3624</v>
+        <v>2935</v>
       </c>
       <c r="B381" t="s">
-        <v>3623</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>2196</v>
+        <v>2508</v>
       </c>
       <c r="B382" t="s">
-        <v>2197</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>4018</v>
+        <v>4276</v>
       </c>
       <c r="B383" t="s">
-        <v>4017</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>3862</v>
+        <v>3624</v>
       </c>
       <c r="B384" t="s">
-        <v>3863</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>2148</v>
+        <v>2196</v>
       </c>
       <c r="B385" t="s">
-        <v>2149</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>1784</v>
+        <v>4018</v>
       </c>
       <c r="B386" t="s">
-        <v>1785</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>2406</v>
+        <v>3862</v>
       </c>
       <c r="B387" t="s">
-        <v>2407</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>1797</v>
+        <v>2148</v>
       </c>
       <c r="B388" t="s">
-        <v>1798</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>2524</v>
+        <v>1784</v>
       </c>
       <c r="B389" t="s">
-        <v>2525</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>4279</v>
+        <v>2406</v>
       </c>
       <c r="B390" t="s">
-        <v>4278</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>2605</v>
+        <v>1797</v>
       </c>
       <c r="B391" t="s">
-        <v>2606</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>4591</v>
+        <v>2524</v>
       </c>
       <c r="B392" t="s">
-        <v>4592</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>4701</v>
+        <v>4279</v>
       </c>
       <c r="B393" t="s">
-        <v>4702</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>2977</v>
+        <v>2605</v>
       </c>
       <c r="B394" t="s">
-        <v>2978</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>2190</v>
+        <v>4591</v>
       </c>
       <c r="B395" t="s">
-        <v>2191</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>2463</v>
+        <v>4701</v>
       </c>
       <c r="B396" t="s">
-        <v>2464</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>2461</v>
+        <v>2977</v>
       </c>
       <c r="B397" t="s">
-        <v>2462</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>4414</v>
+        <v>2190</v>
       </c>
       <c r="B398" t="s">
-        <v>4415</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>5219</v>
+        <v>2463</v>
       </c>
       <c r="B399" t="s">
-        <v>5218</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>2496</v>
+        <v>2461</v>
       </c>
       <c r="B400" t="s">
-        <v>2497</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>4012</v>
+        <v>4414</v>
       </c>
       <c r="B401" t="s">
-        <v>4011</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>3339</v>
+        <v>5219</v>
       </c>
       <c r="B402" t="s">
-        <v>3338</v>
+        <v>5218</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>3344</v>
+        <v>2496</v>
       </c>
       <c r="B403" t="s">
-        <v>3345</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>3753</v>
+        <v>4012</v>
       </c>
       <c r="B404" t="s">
-        <v>3754</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>4597</v>
+        <v>3339</v>
       </c>
       <c r="B405" t="s">
-        <v>4598</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>1776</v>
+        <v>3344</v>
       </c>
       <c r="B406" t="s">
-        <v>1777</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>1824</v>
+        <v>3753</v>
       </c>
       <c r="B407" t="s">
-        <v>1825</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>5162</v>
+        <v>4597</v>
       </c>
       <c r="B408" t="s">
-        <v>5161</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>5163</v>
+        <v>1776</v>
       </c>
       <c r="B409" t="s">
-        <v>5164</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="B410" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>3200</v>
+        <v>5162</v>
       </c>
       <c r="B411" t="s">
-        <v>3201</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>2152</v>
+        <v>5163</v>
       </c>
       <c r="B412" t="s">
-        <v>2153</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>2200</v>
+        <v>1828</v>
       </c>
       <c r="B413" t="s">
-        <v>2201</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="B414" t="s">
-        <v>3198</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>2500</v>
+        <v>2152</v>
       </c>
       <c r="B415" t="s">
-        <v>2503</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>2278</v>
+        <v>2200</v>
       </c>
       <c r="B416" t="s">
-        <v>2279</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>1855</v>
+        <v>3199</v>
       </c>
       <c r="B417" t="s">
-        <v>1856</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>5113</v>
+        <v>2500</v>
       </c>
       <c r="B418" t="s">
-        <v>5112</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>5126</v>
+        <v>2278</v>
       </c>
       <c r="B419" t="s">
-        <v>5125</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>2301</v>
+        <v>1855</v>
       </c>
       <c r="B420" t="s">
-        <v>2302</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>3193</v>
+        <v>5113</v>
       </c>
       <c r="B421" t="s">
-        <v>3192</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>3482</v>
+        <v>5126</v>
       </c>
       <c r="B422" t="s">
-        <v>3481</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>3591</v>
+        <v>2301</v>
       </c>
       <c r="B423" t="s">
-        <v>3592</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>1819</v>
+        <v>3193</v>
       </c>
       <c r="B424" t="s">
-        <v>1820</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>2274</v>
+        <v>3482</v>
       </c>
       <c r="B425" t="s">
-        <v>2275</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>3340</v>
+        <v>3591</v>
       </c>
       <c r="B426" t="s">
-        <v>3341</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>3173</v>
+        <v>1819</v>
       </c>
       <c r="B427" t="s">
-        <v>3172</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>3149</v>
+        <v>2274</v>
       </c>
       <c r="B428" t="s">
-        <v>3148</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>3275</v>
+        <v>3340</v>
       </c>
       <c r="B429" t="s">
-        <v>3276</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="B430" t="s">
-        <v>3177</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>2246</v>
+        <v>3149</v>
       </c>
       <c r="B431" t="s">
-        <v>2247</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>2266</v>
+        <v>3275</v>
       </c>
       <c r="B432" t="s">
-        <v>2267</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>2208</v>
+        <v>3176</v>
       </c>
       <c r="B433" t="s">
-        <v>2209</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>1573</v>
+        <v>2246</v>
       </c>
       <c r="B434" t="s">
-        <v>1786</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>3286</v>
+        <v>2266</v>
       </c>
       <c r="B435" t="s">
-        <v>3287</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>2260</v>
+        <v>2208</v>
       </c>
       <c r="B436" t="s">
-        <v>2261</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>2258</v>
+        <v>1573</v>
       </c>
       <c r="B437" t="s">
-        <v>2259</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>2262</v>
+        <v>3286</v>
       </c>
       <c r="B438" t="s">
-        <v>2263</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>2264</v>
+        <v>2260</v>
       </c>
       <c r="B439" t="s">
-        <v>2265</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>4593</v>
+        <v>2258</v>
       </c>
       <c r="B440" t="s">
-        <v>4594</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>3195</v>
+        <v>2262</v>
       </c>
       <c r="B441" t="s">
-        <v>3196</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>3634</v>
+        <v>2264</v>
       </c>
       <c r="B442" t="s">
-        <v>3635</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>3604</v>
+        <v>4593</v>
       </c>
       <c r="B443" t="s">
-        <v>3603</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>3736</v>
+        <v>3195</v>
       </c>
       <c r="B444" t="s">
-        <v>3737</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>5165</v>
+        <v>3634</v>
       </c>
       <c r="B445" t="s">
-        <v>5166</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>2877</v>
+        <v>3604</v>
       </c>
       <c r="B446" t="s">
-        <v>2876</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>3770</v>
+        <v>3736</v>
       </c>
       <c r="B447" t="s">
-        <v>3771</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>2501</v>
+        <v>5165</v>
       </c>
       <c r="B448" t="s">
-        <v>2504</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>2537</v>
+        <v>2877</v>
       </c>
       <c r="B449" t="s">
-        <v>2538</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>3480</v>
+        <v>3770</v>
       </c>
       <c r="B450" t="s">
-        <v>3483</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>2238</v>
+        <v>2501</v>
       </c>
       <c r="B451" t="s">
-        <v>2239</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>2869</v>
+        <v>2537</v>
       </c>
       <c r="B452" t="s">
-        <v>2870</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>2144</v>
+        <v>3480</v>
       </c>
       <c r="B453" t="s">
-        <v>2145</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>2922</v>
+        <v>2238</v>
       </c>
       <c r="B454" t="s">
-        <v>2923</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>5134</v>
+        <v>2869</v>
       </c>
       <c r="B455" t="s">
-        <v>5135</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>3621</v>
+        <v>2144</v>
       </c>
       <c r="B456" t="s">
-        <v>3620</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>2202</v>
+        <v>2922</v>
       </c>
       <c r="B457" t="s">
-        <v>2203</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>2386</v>
+        <v>5134</v>
       </c>
       <c r="B458" t="s">
-        <v>2387</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>2231</v>
+        <v>3621</v>
       </c>
       <c r="B459" t="s">
-        <v>2344</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>5151</v>
+        <v>2202</v>
       </c>
       <c r="B460" t="s">
-        <v>5150</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>1792</v>
+        <v>2386</v>
       </c>
       <c r="B461" t="s">
-        <v>1793</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>3334</v>
+        <v>2231</v>
       </c>
       <c r="B462" t="s">
-        <v>3335</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>2600</v>
+        <v>5151</v>
       </c>
       <c r="B463" t="s">
-        <v>2601</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>2674</v>
+        <v>1792</v>
       </c>
       <c r="B464" t="s">
-        <v>2675</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>3184</v>
+        <v>3334</v>
       </c>
       <c r="B465" t="s">
-        <v>3185</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>4635</v>
+        <v>2600</v>
       </c>
       <c r="B466" t="s">
-        <v>4636</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>2174</v>
+        <v>2674</v>
       </c>
       <c r="B467" t="s">
-        <v>2175</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>2947</v>
+        <v>3184</v>
       </c>
       <c r="B468" t="s">
-        <v>2946</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>1788</v>
+        <v>4635</v>
       </c>
       <c r="B469" t="s">
-        <v>1789</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>2224</v>
+        <v>2174</v>
       </c>
       <c r="B470" t="s">
-        <v>2225</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>2410</v>
+        <v>2947</v>
       </c>
       <c r="B471" t="s">
-        <v>2411</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>5186</v>
+        <v>1788</v>
       </c>
       <c r="B472" t="s">
-        <v>5185</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>2945</v>
+        <v>2224</v>
       </c>
       <c r="B473" t="s">
-        <v>2944</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>2408</v>
+        <v>2410</v>
       </c>
       <c r="B474" t="s">
-        <v>2409</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>2154</v>
+        <v>5186</v>
       </c>
       <c r="B475" t="s">
-        <v>2155</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>2156</v>
+        <v>2945</v>
       </c>
       <c r="B476" t="s">
-        <v>2157</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>2938</v>
+        <v>2408</v>
       </c>
       <c r="B477" t="s">
-        <v>2937</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>4239</v>
+        <v>2154</v>
       </c>
       <c r="B478" t="s">
-        <v>4238</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>4302</v>
+        <v>2156</v>
       </c>
       <c r="B479" t="s">
-        <v>4303</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>4380</v>
+        <v>2938</v>
       </c>
       <c r="B480" t="s">
-        <v>4377</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>4299</v>
+        <v>4239</v>
       </c>
       <c r="B481" t="s">
-        <v>4298</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>4688</v>
+        <v>4302</v>
       </c>
       <c r="B482" t="s">
-        <v>4687</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>4379</v>
+        <v>4380</v>
       </c>
       <c r="B483" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>4599</v>
+        <v>4299</v>
       </c>
       <c r="B484" t="s">
-        <v>4600</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>4883</v>
+        <v>4688</v>
       </c>
       <c r="B485" t="s">
-        <v>4882</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>5114</v>
+        <v>4379</v>
       </c>
       <c r="B486" t="s">
-        <v>5111</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>5209</v>
+        <v>4599</v>
       </c>
       <c r="B487" t="s">
-        <v>5208</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>2886</v>
+        <v>4883</v>
       </c>
       <c r="B488" t="s">
-        <v>2887</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>2961</v>
+        <v>5114</v>
       </c>
       <c r="B489" t="s">
-        <v>2960</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>3269</v>
+        <v>5209</v>
       </c>
       <c r="B490" t="s">
-        <v>3270</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>1783</v>
+        <v>2886</v>
       </c>
       <c r="B491" t="s">
-        <v>1782</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>4025</v>
+        <v>2961</v>
       </c>
       <c r="B492" t="s">
-        <v>4026</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>2236</v>
+        <v>3269</v>
       </c>
       <c r="B493" t="s">
-        <v>2237</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>2943</v>
+        <v>5264</v>
       </c>
       <c r="B494" t="s">
-        <v>2942</v>
+        <v>5265</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>4306</v>
+        <v>1783</v>
       </c>
       <c r="B495" t="s">
-        <v>4307</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>2518</v>
+        <v>4025</v>
       </c>
       <c r="B496" t="s">
-        <v>2519</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>3747</v>
+        <v>2236</v>
       </c>
       <c r="B497" t="s">
-        <v>3746</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>3801</v>
+        <v>2943</v>
       </c>
       <c r="B498" t="s">
-        <v>3800</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>2526</v>
+        <v>4306</v>
       </c>
       <c r="B499" t="s">
-        <v>2527</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>4690</v>
+        <v>2518</v>
       </c>
       <c r="B500" t="s">
-        <v>4689</v>
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>3747</v>
+      </c>
+      <c r="B501" t="s">
+        <v>3746</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>2933</v>
+        <v>3801</v>
       </c>
       <c r="B502" t="s">
-        <v>2932</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>1773</v>
+        <v>2526</v>
       </c>
       <c r="B503" t="s">
-        <v>1774</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>2645</v>
+        <v>4690</v>
       </c>
       <c r="B504" t="s">
-        <v>2646</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A505" t="s">
-        <v>2293</v>
-      </c>
-      <c r="B505" t="s">
-        <v>2294</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>2546</v>
+        <v>2933</v>
       </c>
       <c r="B506" t="s">
-        <v>2547</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>2166</v>
+        <v>1773</v>
       </c>
       <c r="B507" t="s">
-        <v>2167</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>2176</v>
+        <v>2645</v>
       </c>
       <c r="B508" t="s">
-        <v>2177</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>2168</v>
+        <v>2293</v>
       </c>
       <c r="B509" t="s">
-        <v>2169</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>2447</v>
+        <v>2546</v>
       </c>
       <c r="B510" t="s">
-        <v>2448</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>3336</v>
+        <v>2166</v>
       </c>
       <c r="B511" t="s">
-        <v>3337</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>3832</v>
+        <v>2176</v>
       </c>
       <c r="B512" t="s">
-        <v>3831</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>4798</v>
+        <v>2168</v>
       </c>
       <c r="B513" t="s">
-        <v>4797</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>4941</v>
+        <v>2447</v>
       </c>
       <c r="B514" t="s">
-        <v>3324</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>3309</v>
+        <v>3336</v>
       </c>
       <c r="B515" t="s">
-        <v>4940</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>1170</v>
+        <v>3832</v>
       </c>
       <c r="B516" t="s">
-        <v>3089</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>3527</v>
+        <v>4798</v>
       </c>
       <c r="B517" t="s">
-        <v>3528</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>5247</v>
+        <v>4941</v>
       </c>
       <c r="B518" t="s">
-        <v>5248</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>1136</v>
+        <v>3309</v>
       </c>
       <c r="B519" t="s">
-        <v>2962</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>4240</v>
+        <v>1170</v>
       </c>
       <c r="B520" t="s">
-        <v>4241</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>2596</v>
+        <v>3527</v>
       </c>
       <c r="B521" t="s">
-        <v>2597</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
+        <v>5247</v>
+      </c>
+      <c r="B522" t="s">
+        <v>5248</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B523" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>4240</v>
+      </c>
+      <c r="B524" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B525" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
         <v>3285</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B526" t="s">
         <v>3284</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A523" t="s">
-        <v>1588</v>
-      </c>
-      <c r="B523" t="s">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A524" t="s">
-        <v>1834</v>
-      </c>
-      <c r="B524" t="s">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A525" t="s">
-        <v>3463</v>
-      </c>
-      <c r="B525" t="s">
-        <v>3464</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A526" t="s">
-        <v>1836</v>
-      </c>
-      <c r="B526" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>1962</v>
+        <v>1588</v>
       </c>
       <c r="B527" t="s">
-        <v>4280</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>2254</v>
+        <v>1834</v>
       </c>
       <c r="B528" t="s">
-        <v>2255</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>2254</v>
+        <v>3463</v>
       </c>
       <c r="B529" t="s">
-        <v>3090</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>3529</v>
+        <v>1836</v>
       </c>
       <c r="B530" t="s">
-        <v>3530</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>1485</v>
+        <v>1962</v>
       </c>
       <c r="B531" t="s">
-        <v>1486</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>1989</v>
+        <v>2254</v>
       </c>
       <c r="B532" t="s">
-        <v>1988</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>1982</v>
+        <v>2254</v>
       </c>
       <c r="B533" t="s">
-        <v>1983</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>1984</v>
+        <v>3529</v>
       </c>
       <c r="B534" t="s">
-        <v>1985</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>1987</v>
+        <v>1485</v>
       </c>
       <c r="B535" t="s">
-        <v>1986</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>2033</v>
+        <v>1989</v>
       </c>
       <c r="B536" t="s">
-        <v>2917</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>2188</v>
+        <v>1982</v>
       </c>
       <c r="B537" t="s">
-        <v>2189</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>2206</v>
+        <v>1984</v>
       </c>
       <c r="B538" t="s">
-        <v>2207</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>2442</v>
+        <v>1987</v>
       </c>
       <c r="B539" t="s">
-        <v>2443</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B540" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B541" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B542" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B543" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
         <v>5245</v>
       </c>
-      <c r="B540" t="s">
+      <c r="B544" t="s">
         <v>5246</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A541" t="s">
-        <v>3203</v>
-      </c>
-      <c r="B541" t="s">
-        <v>3202</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A542" t="s">
-        <v>3518</v>
-      </c>
-      <c r="B542" t="s">
-        <v>3519</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A543" t="s">
-        <v>3829</v>
-      </c>
-      <c r="B543" t="s">
-        <v>3830</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A544" t="s">
-        <v>3524</v>
-      </c>
-      <c r="B544" t="s">
-        <v>3523</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>4981</v>
+        <v>3203</v>
       </c>
       <c r="B545" t="s">
-        <v>4982</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>3647</v>
+        <v>3518</v>
       </c>
       <c r="B546" t="s">
-        <v>3648</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
+        <v>3829</v>
+      </c>
+      <c r="B547" t="s">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B548" t="s">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>4981</v>
+      </c>
+      <c r="B549" t="s">
+        <v>4982</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>5262</v>
+      </c>
+      <c r="B550" t="s">
+        <v>5263</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B551" t="s">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
         <v>5104</v>
       </c>
-      <c r="B547" t="s">
+      <c r="B552" t="s">
         <v>5103</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A548" t="s">
-        <v>2598</v>
-      </c>
-      <c r="B548" t="s">
-        <v>2599</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A549" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B549" t="s">
-        <v>2963</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A550" t="s">
-        <v>3271</v>
-      </c>
-      <c r="B550" t="s">
-        <v>3272</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A551" t="s">
-        <v>3274</v>
-      </c>
-      <c r="B551" t="s">
-        <v>3273</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A552" t="s">
-        <v>5183</v>
-      </c>
-      <c r="B552" t="s">
-        <v>5184</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>1850</v>
+        <v>2598</v>
       </c>
       <c r="B553" t="s">
-        <v>1851</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>1850</v>
+        <v>2964</v>
       </c>
       <c r="B554" t="s">
-        <v>1979</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B555" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B556" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>5183</v>
+      </c>
+      <c r="B557" t="s">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
         <v>1192</v>
       </c>
-      <c r="B555" t="s">
+      <c r="B560" t="s">
         <v>1823</v>
       </c>
     </row>
-    <row r="556" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A558" t="s">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A559" t="s">
-        <v>2864</v>
-      </c>
-      <c r="B559" t="s">
-        <v>2865</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A560" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B560" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A561" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B561" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A562" t="s">
-        <v>2212</v>
-      </c>
-      <c r="B562" t="s">
-        <v>2213</v>
-      </c>
-    </row>
+    <row r="561" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>2297</v>
-      </c>
-      <c r="B563" t="s">
-        <v>2298</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>2295</v>
+        <v>2864</v>
       </c>
       <c r="B564" t="s">
-        <v>2296</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>4083</v>
+        <v>1505</v>
       </c>
       <c r="B565" t="s">
-        <v>2813</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>2456</v>
+        <v>1504</v>
       </c>
       <c r="B566" t="s">
-        <v>2909</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>3234</v>
+        <v>2212</v>
       </c>
       <c r="B567" t="s">
-        <v>3235</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>2449</v>
+        <v>2297</v>
       </c>
       <c r="B568" t="s">
-        <v>2451</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>2452</v>
+        <v>2295</v>
       </c>
       <c r="B569" t="s">
-        <v>2450</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>3220</v>
+        <v>4083</v>
       </c>
       <c r="B570" t="s">
-        <v>3221</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>1</v>
+        <v>2456</v>
       </c>
       <c r="B571" t="s">
-        <v>2892</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>1442</v>
+        <v>3234</v>
       </c>
       <c r="B572" t="s">
-        <v>2896</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>3010</v>
+        <v>2449</v>
       </c>
       <c r="B573" t="s">
-        <v>3009</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>2398</v>
+        <v>2452</v>
       </c>
       <c r="B574" t="s">
-        <v>2399</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>2400</v>
+        <v>3220</v>
       </c>
       <c r="B575" t="s">
-        <v>2401</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>2402</v>
+        <v>1</v>
       </c>
       <c r="B576" t="s">
-        <v>2403</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>2404</v>
+        <v>1442</v>
       </c>
       <c r="B577" t="s">
-        <v>2405</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>2192</v>
+        <v>3010</v>
       </c>
       <c r="B578" t="s">
-        <v>2193</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>2242</v>
+        <v>2398</v>
       </c>
       <c r="B579" t="s">
-        <v>2243</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>2390</v>
+        <v>2400</v>
       </c>
       <c r="B580" t="s">
-        <v>2391</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>3239</v>
+        <v>2402</v>
       </c>
       <c r="B581" t="s">
-        <v>3238</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>2270</v>
+        <v>2404</v>
       </c>
       <c r="B582" t="s">
-        <v>2271</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>1530</v>
+        <v>2192</v>
       </c>
       <c r="B583" t="s">
-        <v>1531</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>2146</v>
+        <v>2242</v>
       </c>
       <c r="B584" t="s">
-        <v>2147</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>3240</v>
+        <v>2390</v>
       </c>
       <c r="B585" t="s">
-        <v>3241</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>1880</v>
+        <v>3239</v>
       </c>
       <c r="B586" t="s">
-        <v>2806</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>2866</v>
+        <v>2270</v>
       </c>
       <c r="B587" t="s">
-        <v>2867</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>2911</v>
+        <v>1530</v>
       </c>
       <c r="B588" t="s">
-        <v>2912</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>2214</v>
+        <v>2146</v>
       </c>
       <c r="B589" t="s">
-        <v>2215</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>2804</v>
+        <v>3240</v>
       </c>
       <c r="B590" t="s">
-        <v>2803</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>2184</v>
+        <v>1880</v>
       </c>
       <c r="B591" t="s">
-        <v>2185</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>2654</v>
+        <v>2866</v>
       </c>
       <c r="B592" t="s">
-        <v>2655</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>1613</v>
+        <v>2911</v>
       </c>
       <c r="B593" t="s">
-        <v>1614</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>1609</v>
+        <v>2214</v>
       </c>
       <c r="B594" t="s">
-        <v>1610</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>1611</v>
+        <v>2804</v>
       </c>
       <c r="B595" t="s">
-        <v>1612</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>14</v>
+        <v>2184</v>
       </c>
       <c r="B596" t="s">
-        <v>2905</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>15</v>
+        <v>2654</v>
       </c>
       <c r="B597" t="s">
-        <v>2906</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>3632</v>
+        <v>1613</v>
       </c>
       <c r="B598" t="s">
-        <v>3633</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>2465</v>
+        <v>1609</v>
       </c>
       <c r="B599" t="s">
-        <v>2466</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>1513</v>
+        <v>1611</v>
       </c>
       <c r="B600" t="s">
-        <v>1893</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>2697</v>
+        <v>14</v>
       </c>
       <c r="B601" t="s">
-        <v>2698</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>2291</v>
+        <v>15</v>
       </c>
       <c r="B602" t="s">
-        <v>2292</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>2544</v>
+        <v>3632</v>
       </c>
       <c r="B603" t="s">
-        <v>2545</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>10</v>
+        <v>2465</v>
       </c>
       <c r="B604" t="s">
-        <v>2897</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>1440</v>
+        <v>1513</v>
       </c>
       <c r="B605" t="s">
-        <v>2910</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>3602</v>
+        <v>2697</v>
       </c>
       <c r="B606" t="s">
-        <v>3601</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>2433</v>
+        <v>2291</v>
       </c>
       <c r="B607" t="s">
-        <v>2434</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>2793</v>
+        <v>2544</v>
       </c>
       <c r="B608" t="s">
-        <v>2795</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>2792</v>
+        <v>10</v>
       </c>
       <c r="B609" t="s">
-        <v>2794</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>2816</v>
+        <v>1440</v>
       </c>
       <c r="B610" t="s">
-        <v>2817</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>2227</v>
+        <v>3602</v>
       </c>
       <c r="B611" t="s">
-        <v>2228</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>4079</v>
+        <v>2433</v>
       </c>
       <c r="B612" t="s">
-        <v>2283</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>2234</v>
+        <v>2793</v>
       </c>
       <c r="B613" t="s">
-        <v>2235</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>2542</v>
+        <v>2792</v>
       </c>
       <c r="B614" t="s">
-        <v>2543</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>2895</v>
+        <v>2816</v>
       </c>
       <c r="B615" t="s">
-        <v>2894</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>2856</v>
+        <v>2227</v>
       </c>
       <c r="B616" t="s">
-        <v>2855</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>2753</v>
+        <v>4079</v>
       </c>
       <c r="B617" t="s">
-        <v>2752</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>2901</v>
+        <v>2234</v>
       </c>
       <c r="B618" t="s">
-        <v>2900</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>3358</v>
+        <v>2542</v>
       </c>
       <c r="B619" t="s">
-        <v>3359</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>2790</v>
+        <v>2895</v>
       </c>
       <c r="B620" t="s">
-        <v>2791</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>2487</v>
+        <v>2856</v>
       </c>
       <c r="B621" t="s">
-        <v>2488</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>4936</v>
+        <v>2753</v>
       </c>
       <c r="B622" t="s">
-        <v>4935</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>2810</v>
+        <v>2901</v>
       </c>
       <c r="B623" t="s">
-        <v>2809</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>3616</v>
+        <v>3358</v>
       </c>
       <c r="B624" t="s">
-        <v>3617</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>2808</v>
+        <v>2790</v>
       </c>
       <c r="B625" t="s">
-        <v>2807</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>3348</v>
+        <v>2487</v>
       </c>
       <c r="B626" t="s">
-        <v>3349</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>22</v>
+        <v>4936</v>
       </c>
       <c r="B627" t="s">
-        <v>2898</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>4171</v>
+        <v>2810</v>
       </c>
       <c r="B628" t="s">
-        <v>4172</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>2210</v>
+        <v>3616</v>
       </c>
       <c r="B629" t="s">
-        <v>2211</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>2311</v>
+        <v>2808</v>
       </c>
       <c r="B630" t="s">
-        <v>2312</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>8</v>
+        <v>3348</v>
       </c>
       <c r="B631" t="s">
-        <v>2899</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>2549</v>
+        <v>22</v>
       </c>
       <c r="B632" t="s">
-        <v>2548</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>1852</v>
+        <v>4171</v>
       </c>
       <c r="B633" t="s">
-        <v>2904</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>2162</v>
+        <v>2210</v>
       </c>
       <c r="B634" t="s">
-        <v>2163</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>4080</v>
+        <v>2311</v>
       </c>
       <c r="B635" t="s">
-        <v>2282</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>2784</v>
+        <v>8</v>
       </c>
       <c r="B636" t="s">
-        <v>2785</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>2412</v>
+        <v>2549</v>
       </c>
       <c r="B637" t="s">
-        <v>2413</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>2008</v>
+        <v>1852</v>
       </c>
       <c r="B638" t="s">
-        <v>2840</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B639" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>2483</v>
+        <v>4080</v>
       </c>
       <c r="B640" t="s">
-        <v>2484</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>2797</v>
+        <v>2784</v>
       </c>
       <c r="B641" t="s">
-        <v>2796</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>3626</v>
+        <v>2412</v>
       </c>
       <c r="B642" t="s">
-        <v>3627</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>2560</v>
+        <v>2008</v>
       </c>
       <c r="B643" t="s">
-        <v>2561</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>4459</v>
+        <v>2164</v>
       </c>
       <c r="B644" t="s">
-        <v>4458</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>2908</v>
+        <v>2483</v>
       </c>
       <c r="B645" t="s">
-        <v>2907</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>3630</v>
+        <v>2797</v>
       </c>
       <c r="B646" t="s">
-        <v>3631</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>2419</v>
+        <v>3626</v>
       </c>
       <c r="B647" t="s">
-        <v>2420</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>2928</v>
+        <v>2560</v>
       </c>
       <c r="B648" t="s">
-        <v>2929</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>2880</v>
+        <v>4459</v>
       </c>
       <c r="B649" t="s">
-        <v>2881</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>3232</v>
+        <v>2908</v>
       </c>
       <c r="B650" t="s">
-        <v>3233</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>2812</v>
+        <v>3630</v>
       </c>
       <c r="B651" t="s">
-        <v>2811</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>2031</v>
+        <v>2419</v>
       </c>
       <c r="B652" t="s">
-        <v>2893</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>2831</v>
+        <v>2928</v>
       </c>
       <c r="B653" t="s">
-        <v>2830</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>4901</v>
+        <v>2880</v>
       </c>
       <c r="B654" t="s">
-        <v>4900</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>2540</v>
+        <v>3232</v>
       </c>
       <c r="B655" t="s">
-        <v>2539</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>4925</v>
+        <v>2812</v>
       </c>
       <c r="B656" t="s">
-        <v>4924</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>2748</v>
+        <v>2031</v>
       </c>
       <c r="B657" t="s">
-        <v>2749</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>3157</v>
+        <v>2831</v>
       </c>
       <c r="B658" t="s">
-        <v>3156</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>3155</v>
+        <v>4901</v>
       </c>
       <c r="B659" t="s">
-        <v>3154</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>3159</v>
+        <v>2540</v>
       </c>
       <c r="B660" t="s">
-        <v>3158</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>3153</v>
+        <v>4925</v>
       </c>
       <c r="B661" t="s">
-        <v>3152</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>3778</v>
+        <v>2748</v>
       </c>
       <c r="B662" t="s">
-        <v>3779</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>1771</v>
+        <v>3157</v>
       </c>
       <c r="B663" t="s">
-        <v>1772</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>2287</v>
+        <v>3155</v>
       </c>
       <c r="B664" t="s">
-        <v>2288</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>1388</v>
+        <v>3159</v>
       </c>
       <c r="B665" t="s">
-        <v>2541</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>3478</v>
+        <v>3153</v>
       </c>
       <c r="B666" t="s">
-        <v>3479</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>1501</v>
+        <v>3778</v>
       </c>
       <c r="B667" t="s">
-        <v>1502</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>2829</v>
+        <v>1771</v>
       </c>
       <c r="B668" t="s">
-        <v>2828</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>2303</v>
+        <v>2287</v>
       </c>
       <c r="B669" t="s">
-        <v>2304</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>2299</v>
+        <v>1388</v>
       </c>
       <c r="B670" t="s">
-        <v>2300</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>2305</v>
+        <v>3478</v>
       </c>
       <c r="B671" t="s">
-        <v>2306</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>2798</v>
+        <v>1501</v>
       </c>
       <c r="B672" t="s">
-        <v>2799</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>3781</v>
+        <v>2829</v>
       </c>
       <c r="B673" t="s">
-        <v>3780</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>2567</v>
+        <v>2303</v>
       </c>
       <c r="B674" t="s">
-        <v>2566</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>1990</v>
+        <v>2299</v>
       </c>
       <c r="B675" t="s">
-        <v>1991</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>1532</v>
+        <v>2305</v>
       </c>
       <c r="B676" t="s">
-        <v>1533</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>3788</v>
+        <v>2798</v>
       </c>
       <c r="B677" t="s">
-        <v>3789</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>2788</v>
+        <v>3781</v>
       </c>
       <c r="B678" t="s">
-        <v>2789</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>1490</v>
+        <v>2567</v>
       </c>
       <c r="B679" t="s">
-        <v>1491</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>1509</v>
+        <v>1990</v>
       </c>
       <c r="B680" t="s">
-        <v>1508</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>1509</v>
+        <v>1532</v>
       </c>
       <c r="B681" t="s">
-        <v>2218</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>2422</v>
+        <v>3788</v>
       </c>
       <c r="B682" t="s">
-        <v>2423</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>2194</v>
+        <v>2788</v>
       </c>
       <c r="B683" t="s">
-        <v>2195</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>2222</v>
+        <v>1490</v>
       </c>
       <c r="B684" t="s">
-        <v>2223</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>3258</v>
+        <v>1509</v>
       </c>
       <c r="B685" t="s">
-        <v>3245</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>3267</v>
+        <v>1509</v>
       </c>
       <c r="B686" t="s">
-        <v>3254</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>3268</v>
+        <v>2422</v>
       </c>
       <c r="B687" t="s">
-        <v>3255</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>3259</v>
+        <v>2194</v>
       </c>
       <c r="B688" t="s">
-        <v>3246</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>3260</v>
+        <v>2222</v>
       </c>
       <c r="B689" t="s">
-        <v>3247</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="B690" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>3262</v>
+        <v>3267</v>
       </c>
       <c r="B691" t="s">
-        <v>3249</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>3263</v>
+        <v>3268</v>
       </c>
       <c r="B692" t="s">
-        <v>3250</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>3264</v>
+        <v>3259</v>
       </c>
       <c r="B693" t="s">
-        <v>3251</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>3265</v>
+        <v>3260</v>
       </c>
       <c r="B694" t="s">
-        <v>3252</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>3266</v>
+        <v>3261</v>
       </c>
       <c r="B695" t="s">
-        <v>3253</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>3257</v>
+        <v>3262</v>
       </c>
       <c r="B696" t="s">
-        <v>3256</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>3243</v>
+        <v>3263</v>
       </c>
       <c r="B697" t="s">
-        <v>3244</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>3008</v>
+        <v>3264</v>
       </c>
       <c r="B698" t="s">
-        <v>3007</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>2248</v>
+        <v>3265</v>
       </c>
       <c r="B699" t="s">
-        <v>2249</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>2250</v>
+        <v>3266</v>
       </c>
       <c r="B700" t="s">
-        <v>2251</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>2388</v>
+        <v>3257</v>
       </c>
       <c r="B701" t="s">
-        <v>2389</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>2252</v>
+        <v>3243</v>
       </c>
       <c r="B702" t="s">
-        <v>2253</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>2878</v>
+        <v>3008</v>
       </c>
       <c r="B703" t="s">
-        <v>2879</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>3758</v>
+        <v>2248</v>
       </c>
       <c r="B704" t="s">
-        <v>3764</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>3759</v>
+        <v>2250</v>
       </c>
       <c r="B705" t="s">
-        <v>3765</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>3760</v>
+        <v>2388</v>
       </c>
       <c r="B706" t="s">
-        <v>3766</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>3761</v>
+        <v>2252</v>
       </c>
       <c r="B707" t="s">
-        <v>3767</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>3762</v>
+        <v>2878</v>
       </c>
       <c r="B708" t="s">
-        <v>3768</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>3763</v>
+        <v>3758</v>
       </c>
       <c r="B709" t="s">
-        <v>3769</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>2818</v>
+        <v>3759</v>
       </c>
       <c r="B710" t="s">
-        <v>2819</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>3288</v>
+        <v>3760</v>
       </c>
       <c r="B711" t="s">
-        <v>3289</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>2256</v>
+        <v>3761</v>
       </c>
       <c r="B712" t="s">
-        <v>2257</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>2902</v>
+        <v>3762</v>
       </c>
       <c r="B713" t="s">
-        <v>2903</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>2363</v>
+        <v>3763</v>
       </c>
       <c r="B714" t="s">
-        <v>2385</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>2384</v>
+        <v>2818</v>
       </c>
       <c r="B715" t="s">
-        <v>2385</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>2742</v>
+        <v>3288</v>
       </c>
       <c r="B716" t="s">
-        <v>2743</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>2562</v>
+        <v>2256</v>
       </c>
       <c r="B717" t="s">
-        <v>2563</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>1615</v>
+        <v>2902</v>
       </c>
       <c r="B718" t="s">
-        <v>1616</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>2417</v>
+        <v>2363</v>
       </c>
       <c r="B719" t="s">
-        <v>2418</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>3707</v>
+        <v>2384</v>
       </c>
       <c r="B720" t="s">
-        <v>3708</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>2851</v>
+        <v>2742</v>
       </c>
       <c r="B721" t="s">
-        <v>2852</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>3824</v>
+        <v>2562</v>
       </c>
       <c r="B722" t="s">
-        <v>3823</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>1888</v>
+        <v>1615</v>
       </c>
       <c r="B723" t="s">
-        <v>1889</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>2738</v>
+        <v>2417</v>
       </c>
       <c r="B724" t="s">
-        <v>2739</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>2801</v>
+        <v>3707</v>
       </c>
       <c r="B725" t="s">
-        <v>2805</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>3330</v>
+        <v>2851</v>
       </c>
       <c r="B726" t="s">
-        <v>3331</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>1890</v>
+        <v>3824</v>
       </c>
       <c r="B727" t="s">
-        <v>1891</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>4633</v>
+        <v>1888</v>
       </c>
       <c r="B728" t="s">
-        <v>4634</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>3643</v>
+        <v>2738</v>
       </c>
       <c r="B729" t="s">
-        <v>3644</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>2431</v>
+        <v>2801</v>
       </c>
       <c r="B730" t="s">
-        <v>2432</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>2886</v>
+        <v>3330</v>
       </c>
       <c r="B731" t="s">
-        <v>3477</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>2741</v>
+        <v>1890</v>
       </c>
       <c r="B732" t="s">
-        <v>2740</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>2219</v>
+        <v>4633</v>
       </c>
       <c r="B733" t="s">
-        <v>2220</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>4939</v>
+        <v>3643</v>
       </c>
       <c r="B734" t="s">
-        <v>4938</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>2838</v>
+        <v>2431</v>
       </c>
       <c r="B735" t="s">
-        <v>2839</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>2160</v>
+        <v>2886</v>
       </c>
       <c r="B736" t="s">
-        <v>2161</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>2802</v>
+        <v>2741</v>
       </c>
       <c r="B737" t="s">
-        <v>2800</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>2834</v>
+        <v>2219</v>
       </c>
       <c r="B738" t="s">
-        <v>2835</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>2244</v>
+        <v>4939</v>
       </c>
       <c r="B739" t="s">
-        <v>2245</v>
+        <v>4938</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>2825</v>
+        <v>2838</v>
       </c>
       <c r="B740" t="s">
-        <v>2824</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>2268</v>
+        <v>2160</v>
       </c>
       <c r="B741" t="s">
-        <v>2269</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>2216</v>
+        <v>2802</v>
       </c>
       <c r="B742" t="s">
-        <v>2217</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>3825</v>
+        <v>2834</v>
       </c>
       <c r="B743" t="s">
-        <v>3826</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>2172</v>
+        <v>2244</v>
       </c>
       <c r="B744" t="s">
-        <v>2173</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>4081</v>
+        <v>2825</v>
       </c>
       <c r="B745" t="s">
-        <v>2284</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>2414</v>
+        <v>2268</v>
       </c>
       <c r="B746" t="s">
-        <v>2415</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>2394</v>
+        <v>2216</v>
       </c>
       <c r="B747" t="s">
-        <v>2395</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>2821</v>
+        <v>3825</v>
       </c>
       <c r="B748" t="s">
-        <v>2820</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>259</v>
+        <v>2172</v>
       </c>
       <c r="B749" t="s">
-        <v>1498</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>3918</v>
+        <v>4081</v>
       </c>
       <c r="B750" t="s">
-        <v>3917</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>2746</v>
+        <v>2414</v>
       </c>
       <c r="B751" t="s">
-        <v>2747</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>2815</v>
+        <v>2394</v>
       </c>
       <c r="B752" t="s">
-        <v>2814</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>3186</v>
+        <v>2821</v>
       </c>
       <c r="B753" t="s">
-        <v>3187</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>4595</v>
+        <v>259</v>
       </c>
       <c r="B754" t="s">
-        <v>4596</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>3012</v>
+        <v>3918</v>
       </c>
       <c r="B755" t="s">
-        <v>3011</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>2054</v>
+        <v>2746</v>
       </c>
       <c r="B756" t="s">
-        <v>2914</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>2467</v>
+        <v>2815</v>
       </c>
       <c r="B757" t="s">
-        <v>2468</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>2469</v>
+        <v>3186</v>
       </c>
       <c r="B758" t="s">
-        <v>2470</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>2836</v>
+        <v>4595</v>
       </c>
       <c r="B759" t="s">
-        <v>2837</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>3645</v>
+        <v>3012</v>
       </c>
       <c r="B760" t="s">
-        <v>3646</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>4092</v>
+        <v>2054</v>
       </c>
       <c r="B761" t="s">
-        <v>4091</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>3860</v>
+        <v>2467</v>
       </c>
       <c r="B762" t="s">
-        <v>3861</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>2823</v>
+        <v>2469</v>
       </c>
       <c r="B763" t="s">
-        <v>2822</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>2827</v>
+        <v>2836</v>
       </c>
       <c r="B764" t="s">
-        <v>2826</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>2285</v>
+        <v>3645</v>
       </c>
       <c r="B765" t="s">
-        <v>2286</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>3607</v>
+        <v>4092</v>
       </c>
       <c r="B766" t="s">
-        <v>3606</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>4082</v>
+        <v>3860</v>
       </c>
       <c r="B767" t="s">
-        <v>2632</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>2787</v>
+        <v>2823</v>
       </c>
       <c r="B768" t="s">
-        <v>2786</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>4089</v>
+        <v>2827</v>
       </c>
       <c r="B769" t="s">
-        <v>4090</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>4144</v>
+        <v>2285</v>
       </c>
       <c r="B770" t="s">
-        <v>4143</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>3204</v>
+        <v>3607</v>
       </c>
       <c r="B771" t="s">
-        <v>3205</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>3657</v>
+        <v>4082</v>
       </c>
       <c r="B772" t="s">
-        <v>3658</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>2685</v>
+        <v>2787</v>
       </c>
       <c r="B773" t="s">
-        <v>2684</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>2682</v>
+        <v>4089</v>
       </c>
       <c r="B774" t="s">
-        <v>2683</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>1605</v>
+        <v>4144</v>
       </c>
       <c r="B775" t="s">
-        <v>1604</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>3237</v>
+        <v>3204</v>
       </c>
       <c r="B776" t="s">
-        <v>3236</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>2853</v>
+        <v>3657</v>
       </c>
       <c r="B777" t="s">
-        <v>2854</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>2429</v>
+        <v>2685</v>
       </c>
       <c r="B778" t="s">
-        <v>2430</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>2025</v>
+        <v>2682</v>
       </c>
       <c r="B779" t="s">
-        <v>2841</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>3230</v>
+        <v>1605</v>
       </c>
       <c r="B780" t="s">
-        <v>3231</v>
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A781" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B781" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A782" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B782" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A783" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B783" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A784" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B784" t="s">
+        <v>2841</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>2348</v>
-      </c>
-    </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A786" t="s">
-        <v>2289</v>
-      </c>
-      <c r="B786" t="s">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A787" t="s">
-        <v>2307</v>
-      </c>
-      <c r="B787" t="s">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A788" t="s">
-        <v>2875</v>
-      </c>
-      <c r="B788" t="s">
-        <v>2874</v>
-      </c>
-    </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A789" t="s">
-        <v>2846</v>
-      </c>
-      <c r="B789" t="s">
-        <v>2845</v>
+        <v>3230</v>
+      </c>
+      <c r="B785" t="s">
+        <v>3231</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>3219</v>
-      </c>
-      <c r="B790" t="s">
-        <v>3218</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>2859</v>
+        <v>2289</v>
       </c>
       <c r="B791" t="s">
-        <v>2860</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>3150</v>
+        <v>2307</v>
       </c>
       <c r="B792" t="s">
-        <v>3151</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>3171</v>
+        <v>2875</v>
       </c>
       <c r="B793" t="s">
-        <v>3170</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>3908</v>
+        <v>2846</v>
       </c>
       <c r="B794" t="s">
-        <v>3907</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>3183</v>
+        <v>3219</v>
       </c>
       <c r="B795" t="s">
-        <v>3182</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>3223</v>
+        <v>2859</v>
       </c>
       <c r="B796" t="s">
-        <v>3224</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>4528</v>
+        <v>3150</v>
       </c>
       <c r="B797" t="s">
-        <v>3921</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>4528</v>
+        <v>3171</v>
       </c>
       <c r="B798" t="s">
-        <v>4527</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>3923</v>
+        <v>3908</v>
       </c>
       <c r="B799" t="s">
-        <v>3922</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>4416</v>
+        <v>3183</v>
       </c>
       <c r="B800" t="s">
-        <v>4417</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>4586</v>
+        <v>3223</v>
       </c>
       <c r="B801" t="s">
-        <v>4585</v>
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
+        <v>4528</v>
+      </c>
+      <c r="B802" t="s">
+        <v>3921</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>2692</v>
+        <v>4528</v>
+      </c>
+      <c r="B803" t="s">
+        <v>4527</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>2693</v>
+        <v>3923</v>
       </c>
       <c r="B804" t="s">
-        <v>2694</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>2695</v>
+        <v>4416</v>
       </c>
       <c r="B805" t="s">
-        <v>2696</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>3910</v>
+        <v>4586</v>
       </c>
       <c r="B806" t="s">
-        <v>3909</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>4773</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>2372</v>
+        <v>2693</v>
       </c>
       <c r="B809" t="s">
-        <v>2373</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>2374</v>
+        <v>2695</v>
       </c>
       <c r="B810" t="s">
-        <v>2375</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>2376</v>
+        <v>3910</v>
       </c>
       <c r="B811" t="s">
-        <v>2377</v>
-      </c>
-    </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A812" t="s">
-        <v>2378</v>
-      </c>
-      <c r="B812" t="s">
-        <v>2379</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>2380</v>
-      </c>
-      <c r="B813" t="s">
-        <v>2381</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>4777</v>
+        <v>2372</v>
       </c>
       <c r="B814" t="s">
-        <v>4776</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>4779</v>
+        <v>2374</v>
       </c>
       <c r="B815" t="s">
-        <v>4778</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>4774</v>
+        <v>2376</v>
       </c>
       <c r="B816" t="s">
-        <v>4775</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>4781</v>
+        <v>2378</v>
       </c>
       <c r="B817" t="s">
-        <v>4780</v>
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B818" t="s">
+        <v>2381</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>3757</v>
+        <v>4777</v>
+      </c>
+      <c r="B819" t="s">
+        <v>4776</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>3756</v>
+        <v>4779</v>
       </c>
       <c r="B820" t="s">
-        <v>3755</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>4451</v>
+        <v>4774</v>
       </c>
       <c r="B821" t="s">
-        <v>4452</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B822" t="s">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B825" t="s">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>4451</v>
+      </c>
+      <c r="B826" t="s">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
         <v>4453</v>
       </c>
-      <c r="B822" t="s">
+      <c r="B827" t="s">
         <v>4454</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A823" t="s">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
         <v>4455</v>
       </c>
-      <c r="B823" t="s">
+      <c r="B828" t="s">
         <v>4456</v>
       </c>
     </row>
@@ -39246,10 +39325,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B877"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
       <pane ySplit="3168" topLeftCell="A830"/>
-      <selection activeCell="A409" sqref="A409"/>
-      <selection pane="bottomLeft" activeCell="A868" sqref="A868:XFD868"/>
+      <selection activeCell="B336" sqref="B336"/>
+      <selection pane="bottomLeft" activeCell="A832" sqref="A832"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41753,6 +41832,14 @@
         <v>4782</v>
       </c>
     </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>5268</v>
+      </c>
+      <c r="B336" t="s">
+        <v>5269</v>
+      </c>
+    </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>2320</v>
@@ -43678,6 +43765,14 @@
       </c>
       <c r="B618" t="s">
         <v>4522</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B619" t="s">
+        <v>5261</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
